--- a/4 4/ExactModelData.xlsx
+++ b/4 4/ExactModelData.xlsx
@@ -1,40 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5060C23B-D494-46FE-9281-2F2A86AF7C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00CA278-359C-42FA-B3A1-27B3E2547D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
     <sheet name="Distances" sheetId="1" r:id="rId2"/>
     <sheet name="Times" sheetId="4" r:id="rId3"/>
-    <sheet name="HorseTrailer" sheetId="2" r:id="rId4"/>
-    <sheet name="HorseStore" sheetId="5" r:id="rId5"/>
-    <sheet name="TrailerStore" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AverageUnload">'1D'!$L$2:$L$7</definedName>
+    <definedName name="CoordinatesX">'1D'!$G$3:$G$6</definedName>
+    <definedName name="CoordinatesY">'1D'!$H$3:$H$6</definedName>
     <definedName name="Demand">'1D'!$I$2:$I$7</definedName>
-    <definedName name="DistanceCost">'1D'!$B$2:$B$5</definedName>
+    <definedName name="DistanceCost">'1D'!$C$2:$C$5</definedName>
     <definedName name="Distances">Distances!$A$1:$F$6</definedName>
-    <definedName name="Horses">'1D'!$A$2:$A$5</definedName>
-    <definedName name="HorseStore">HorseStore!$A$1:$D$4</definedName>
-    <definedName name="HorseTrailer">HorseTrailer!$A$1:$D$4</definedName>
     <definedName name="Locations">'1D'!$F$2:$F$7</definedName>
     <definedName name="PalletCapacity">'1D'!$E$2:$E$5</definedName>
     <definedName name="Stores">'1D'!$F$3:$F$6</definedName>
-    <definedName name="TimeCost">'1D'!$C$2:$C$5</definedName>
+    <definedName name="TimeCost">'1D'!$D$2:$D$5</definedName>
     <definedName name="Times">Times!$A$1:$F$6</definedName>
-    <definedName name="Trailers">'1D'!$D$2:$D$5</definedName>
-    <definedName name="TrailerStore">TrailerStore!$A$1:$D$4</definedName>
+    <definedName name="Vehicles">'1D'!$A$2:$A$5</definedName>
+    <definedName name="VehicleTypes">'1D'!$B$2:$B$5</definedName>
     <definedName name="WindowEnd">'1D'!$K$2:$K$7</definedName>
     <definedName name="WindowStart">'1D'!$J$2:$J$7</definedName>
   </definedNames>
@@ -56,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -78,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Pallets</t>
   </si>
@@ -98,12 +94,6 @@
     <t>Time Cost</t>
   </si>
   <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>Horse</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -113,88 +103,85 @@
     <t>SP2</t>
   </si>
   <si>
+    <t>Depot</t>
+  </si>
+  <si>
+    <t>Average Unload</t>
+  </si>
+  <si>
+    <t>DepotReturn</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Max X &amp; Y</t>
+  </si>
+  <si>
+    <t>Min X &amp; Y</t>
+  </si>
+  <si>
+    <t>Num stores</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Max Demand</t>
+  </si>
+  <si>
+    <t>Distance Cost Min</t>
+  </si>
+  <si>
+    <t>Distance Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Min</t>
+  </si>
+  <si>
+    <t>Chance of having window</t>
+  </si>
+  <si>
+    <t>Unload Min</t>
+  </si>
+  <si>
+    <t>Unload Max</t>
+  </si>
+  <si>
+    <t>Total Demand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vehicle Types</t>
+  </si>
+  <si>
+    <t>Rigid</t>
+  </si>
+  <si>
+    <t>8 metre</t>
+  </si>
+  <si>
+    <t>11 metre</t>
+  </si>
+  <si>
+    <t>Number of vehicle types</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
     <t>SP3</t>
   </si>
   <si>
     <t>SP4</t>
-  </si>
-  <si>
-    <t>C 1</t>
-  </si>
-  <si>
-    <t>C 2</t>
-  </si>
-  <si>
-    <t>C 3</t>
-  </si>
-  <si>
-    <t>C 4</t>
-  </si>
-  <si>
-    <t>Depot</t>
-  </si>
-  <si>
-    <t>Average Unload</t>
-  </si>
-  <si>
-    <t>DepotReturn</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Max X &amp; Y</t>
-  </si>
-  <si>
-    <t>Min X &amp; Y</t>
-  </si>
-  <si>
-    <t>Num stores</t>
-  </si>
-  <si>
-    <t>Max Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Min Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Number of vehicles</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Max Demand</t>
-  </si>
-  <si>
-    <t>Distance Cost Min</t>
-  </si>
-  <si>
-    <t>Distance Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Min</t>
-  </si>
-  <si>
-    <t>Chance of having window</t>
-  </si>
-  <si>
-    <t>Unload Min</t>
-  </si>
-  <si>
-    <t>Unload Max</t>
-  </si>
-  <si>
-    <t>Compatability Chance</t>
-  </si>
-  <si>
-    <t>Total Demand</t>
   </si>
 </sst>
 </file>
@@ -270,17 +257,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,16 +408,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9658201663678767</c:v>
+                  <c:v>-49.371392322886692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.3144278116306225</c:v>
+                  <c:v>-27.877278477339516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.506078708499516</c:v>
+                  <c:v>-25.00802028359756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.465339711644148</c:v>
+                  <c:v>-23.409137053299389</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -447,16 +435,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-98.704795707353668</c:v>
+                  <c:v>43.703313370203517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.0017833281072654</c:v>
+                  <c:v>-52.706272572992816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.380780888047752</c:v>
+                  <c:v>82.234440902161808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21.897430762017734</c:v>
+                  <c:v>-53.768666433445688</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1223,12 +1211,12 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1523,18 +1511,18 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.85546875" customWidth="1"/>
@@ -1542,7 +1530,7 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" customWidth="1"/>
@@ -1554,30 +1542,30 @@
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1589,34 +1577,46 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>11 metre</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.0766613501245306</v>
+      </c>
+      <c r="D2" s="8">
+        <f ca="1"/>
+        <v>11.680724614212096</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" cm="1">
-        <f t="array" aca="1" ref="B2:B5" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.2260526888657852</v>
-      </c>
-      <c r="C2" s="2" cm="1">
-        <f t="array" aca="1" ref="C2:C5" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>14.758208375961265</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" cm="1">
-        <f t="array" aca="1" ref="E2:E5" ca="1">_xlfn.RANDARRAY(P8,1,P14,P13,TRUE)</f>
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1635,49 +1635,63 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L6" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>3.07734629467806E-2</v>
+        <v>0.11708545766459119</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>4</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
+        <v>0.8882435265947235</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
+        <v>8.3680339970479398</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <f ca="1"/>
-        <v>0.95875927361783764</v>
-      </c>
-      <c r="C3" s="2">
-        <f ca="1"/>
-        <v>8.4368811298718853</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.0392871538740625</v>
+      </c>
+      <c r="D3" s="8">
+        <f ca="1"/>
+        <v>12.517607083455585</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H6" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>4.9658201663678767</v>
+        <v>-49.371392322886692</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-98.704795707353668</v>
+        <v>43.703313370203517</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" aca="1" ref="I3:I6" ca="1">_xlfn.RANDARRAY(P2,1,0,ROUNDUP((P17/P2),0),TRUE)</f>
-        <v>9</v>
+        <f t="array" aca="1" ref="I3:I6" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
+        <v>7</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1689,139 +1703,167 @@
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>7.853859173516467E-2</v>
+        <v>7.4609696568647771E-2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f ca="1"/>
+        <v>1.0392871538740625</v>
+      </c>
+      <c r="T3">
+        <f ca="1"/>
+        <v>12.517607083455585</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <f ca="1"/>
-        <v>0.92297047377317476</v>
-      </c>
-      <c r="C4" s="2">
-        <f ca="1"/>
-        <v>12.919509093209999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>Rigid</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>0.8882435265947235</v>
+      </c>
+      <c r="D4" s="8">
+        <f ca="1"/>
+        <v>8.3680339970479398</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-3.3144278116306225</v>
+        <v>-27.877278477339516</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-4.0017833281072654</v>
+        <v>-52.706272572992816</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>0</v>
+        <f t="shared" ref="J4:J6" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
+        <v>5</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>0.12097760716721068</v>
+        <v>5.9454480711389035E-2</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P4">
         <v>-100</v>
       </c>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <f ca="1"/>
+        <v>1.0766613501245306</v>
+      </c>
+      <c r="T4">
+        <f ca="1"/>
+        <v>11.680724614212096</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <f ca="1"/>
-        <v>1.2804058642866771</v>
-      </c>
-      <c r="C5" s="2">
-        <f ca="1"/>
-        <v>10.306819397972784</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.0392871538740625</v>
+      </c>
+      <c r="D5" s="8">
+        <f ca="1"/>
+        <v>12.517607083455585</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>25.506078708499516</v>
+        <v>-25.00802028359756</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>44.380780888047752</v>
+        <v>82.234440902161808</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.12786518536118147</v>
+        <v>3.3618052823987554E-2</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="P5" s="5">
         <v>0.33</v>
       </c>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>81.465339711644148</v>
+        <v>-23.409137053299389</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-21.897430762017734</v>
+        <v>-53.768666433445688</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1833,20 +1875,20 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>0.14887424102199154</v>
+        <v>7.8318961853586194E-2</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="P6">
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1867,99 +1909,75 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P7">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O9" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O11" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <f ca="1">SUM(E:E)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17">
-        <f ca="1">SUM(E:E)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18">
+      <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P19" s="5">
-        <f ca="1">P18/P17</f>
-        <v>0.40816326530612246</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="5">
+        <f ca="1">P15/P14</f>
+        <v>0.73333333333333328</v>
       </c>
     </row>
   </sheetData>
@@ -1990,19 +2008,19 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>98.829631515831977</v>
+        <v>65.935680624640582</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>5.196123701724952</v>
+        <v>59.624607536165399</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>51.18802363167655</v>
+        <v>85.952919374480643</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>84.356973916274086</v>
+        <v>58.643475234771884</v>
       </c>
       <c r="F1">
         <f>SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
@@ -2012,7 +2030,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>98.829631515831977</v>
+        <v>65.935680624640582</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2020,29 +2038,29 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>95.064310128885097</v>
+        <v>98.776541707755214</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>144.55235885524698</v>
+        <v>45.587516778267819</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>108.40455617963724</v>
+        <v>100.87034026673159</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>98.829631515831977</v>
+        <v>65.935680624640582</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>5.196123701724952</v>
+        <v>59.624607536165399</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>95.064310128885097</v>
+        <v>98.776541707755214</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2050,29 +2068,29 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>56.316020067181846</v>
+        <v>134.97121469323054</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>86.647926567110318</v>
+        <v>4.5927081879813878</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>5.196123701724952</v>
+        <v>59.624607536165399</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>51.18802363167655</v>
+        <v>85.952919374480643</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>144.55235885524698</v>
+        <v>45.587516778267819</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>56.316020067181846</v>
+        <v>134.97121469323054</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2080,29 +2098,29 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>86.742378521394841</v>
+        <v>136.01250542698236</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>51.18802363167655</v>
+        <v>85.952919374480643</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>84.356973916274086</v>
+        <v>58.643475234771884</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>108.40455617963724</v>
+        <v>100.87034026673159</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>86.647926567110318</v>
+        <v>4.5927081879813878</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>86.742378521394841</v>
+        <v>136.01250542698236</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2110,7 +2128,7 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>84.356973916274086</v>
+        <v>58.643475234771884</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2120,19 +2138,19 @@
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>98.829631515831977</v>
+        <v>65.935680624640582</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>5.196123701724952</v>
+        <v>59.624607536165399</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>51.18802363167655</v>
+        <v>85.952919374480643</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>84.356973916274086</v>
+        <v>58.643475234771884</v>
       </c>
       <c r="F6">
         <f>SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2152,7 +2170,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,19 +2182,19 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>1.2353703939478997</v>
+        <v>0.82419600780800728</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>6.4951546271561897E-2</v>
+        <v>0.74530759420206749</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.63985029539595684</v>
+        <v>1.074411492181008</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!E1/80</f>
-        <v>1.0544621739534261</v>
+        <v>0.73304344043464853</v>
       </c>
       <c r="F1">
         <f>Distances!F1/80</f>
@@ -2190,7 +2208,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>1.2353703939478997</v>
+        <v>0.82419600780800728</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2198,19 +2216,19 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.1883038766110636</v>
+        <v>1.2347067713469402</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.8069044856905871</v>
+        <v>0.56984395972834778</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>1.3550569522454654</v>
+        <v>1.2608792533341449</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.2353703939478997</v>
+        <v>0.82419600780800728</v>
       </c>
       <c r="G2">
         <f>Distances!G2/80</f>
@@ -2220,11 +2238,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>6.4951546271561897E-2</v>
+        <v>0.74530759420206749</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.1883038766110636</v>
+        <v>1.2347067713469402</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2232,15 +2250,15 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.70395025083977303</v>
+        <v>1.6871401836653817</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.0830990820888791</v>
+        <v>5.740885234976735E-2</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>6.4951546271561897E-2</v>
+        <v>0.74530759420206749</v>
       </c>
       <c r="G3">
         <f>Distances!G3/80</f>
@@ -2250,15 +2268,15 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.63985029539595684</v>
+        <v>1.074411492181008</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.8069044856905871</v>
+        <v>0.56984395972834778</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.70395025083977303</v>
+        <v>1.6871401836653817</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2266,11 +2284,11 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>1.0842797315174355</v>
+        <v>1.7001563178372794</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.63985029539595684</v>
+        <v>1.074411492181008</v>
       </c>
       <c r="G4">
         <f>Distances!G4/80</f>
@@ -2280,19 +2298,19 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.0544621739534261</v>
+        <v>0.73304344043464853</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>1.3550569522454654</v>
+        <v>1.2608792533341449</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.0830990820888791</v>
+        <v>5.740885234976735E-2</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>1.0842797315174355</v>
+        <v>1.7001563178372794</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2300,7 +2318,7 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>1.0544621739534261</v>
+        <v>0.73304344043464853</v>
       </c>
       <c r="G5">
         <f>Distances!G5/80</f>
@@ -2314,19 +2332,19 @@
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.2353703939478997</v>
+        <v>0.82419600780800728</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>6.4951546271561897E-2</v>
+        <v>0.74530759420206749</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.63985029539595684</v>
+        <v>1.074411492181008</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>1.0544621739534261</v>
+        <v>0.73304344043464853</v>
       </c>
       <c r="F6">
         <f>Distances!F6/80</f>
@@ -2365,390 +2383,6 @@
       <c r="G7">
         <f>Distances!G7/80</f>
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D636C-B1F2-40ED-AFFD-CEAECA9A3EA3}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3193DF46-A5F5-411E-9E65-0CD84739E551}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A14196F-B2E4-4597-BD06-5E39E2E8AD11}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
